--- a/aethernode_v1.0.xlsx
+++ b/aethernode_v1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aethernode\aethernode\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A684F9-0556-4356-A10A-C62C50AC95EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9D1965DE-A696-4C1F-891F-5A2D2F30AAC0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="aethernode" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">aethernode!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,9 +142,6 @@
     <t>PS1</t>
   </si>
   <si>
-    <t>1.5k</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -263,15 +259,6 @@
     <t>https://www.tme.eu/bg/details/am30cw-4805slpz/preobrazuvateli-dc-dc/aimtec/</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW12061K50FKEAC/7928606</t>
-  </si>
-  <si>
-    <t>https://www.mouser.bg/ProductDetail/Royalohm/1206W4F1501T5E?qs=e8oIoAS2J1S4DWod6BaPiQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/bg/details/1206s4f1501t5e/smd-rezistori/royalohm/</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -291,13 +278,25 @@
   </si>
   <si>
     <t>TYPE WITH ANTENNA: E22-400M33S JKS / TYPE WITHOUT ANTENNA:E22-400M33S</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW12065K10FKEAC/7920797</t>
+  </si>
+  <si>
+    <t>https://www.mouser.bg/ProductDetail/Royalohm/1206W4J0512T5E?qs=e8oIoAS2J1RUkY%252BEUYIc0g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/bg/details/1206s4f5101t5e/smd-rezistori/royalohm/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,23 +394,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,25 +839,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF76B807-2AA4-4B2D-9ACF-80C7D4ECCF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="8" customWidth="1"/>
-    <col min="7" max="9" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="8" customWidth="1"/>
+    <col min="7" max="9" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,18 +877,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="71.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -901,24 +900,24 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7">
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" ht="185.25">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -936,18 +935,18 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="85.5">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -965,18 +964,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="57">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -994,18 +993,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" ht="57">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -1014,30 +1013,30 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" ht="99.75">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1052,16 +1051,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="71.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1081,16 +1080,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="71.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1110,16 +1109,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" ht="71.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1139,161 +1138,161 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" ht="57">
       <c r="A11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="26" spans="3:8" ht="65.45" customHeight="1">
+      <c r="F26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="F27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="26" spans="3:8" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
+  <sortState ref="A2:F14">
     <sortCondition ref="B1:B14"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H19"/>
     <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{D298A102-395D-480A-8011-70436AB8D3EB}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{76376436-C4DD-4E8B-B4FC-0AFB06ECCF51}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{AB7B2FFE-4943-4B1B-8210-DC932CE62DE0}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{25D101EC-2FF5-4A07-A7E0-8B93BC4557A4}"/>
-    <hyperlink ref="G3" r:id="rId5" display="https://www.digikey.com/en/products/filter/tantalum-capacitors/59?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAE4AWADlgCYQBdAgBwBcoQBlNgJwEsAdgHMQAXwJhqAZgQhkkdNnxFSIaQHZYVBsxDtOPASPEE6AVgbR5qTLgLFIZOpTrkpTVh0jc%2BQ0RIgdAAMlORyCkr2qk4glBoABACtAGKe%2Bt4gAKqC-GwA8igAsjhoWACuvDimQcEa4daRdiqOZHAJAGrpBj45eYUlZZXVYqNAA" xr:uid="{38AF727F-CC2D-4A1E-9D64-D3C88E2BCCE9}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{BEC534B4-67D3-4251-802A-EF0B945E33C2}"/>
-    <hyperlink ref="G4" r:id="rId7" xr:uid="{935CC78A-0688-4FA6-99D9-80564B53656D}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{D6D0C0D8-59D3-421A-BEA0-F7DD195FD90F}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{078B2C8B-BFE5-4D39-8944-A5F04FDF8BEA}"/>
-    <hyperlink ref="G5" r:id="rId10" xr:uid="{2D92B0E1-FF60-4BC2-AFD6-2B70B428588C}"/>
-    <hyperlink ref="H5" r:id="rId11" xr:uid="{343AA876-A927-4F57-8BEA-826629CF2544}"/>
-    <hyperlink ref="I5" r:id="rId12" xr:uid="{E80BAF39-9B72-4141-B8ED-A422847D5F68}"/>
-    <hyperlink ref="G6" r:id="rId13" xr:uid="{5795E2B5-9F84-486D-90B5-9B142C1CC860}"/>
-    <hyperlink ref="H6" r:id="rId14" xr:uid="{49D3306E-086C-48B2-AFEC-405D851339EF}"/>
-    <hyperlink ref="I6" r:id="rId15" xr:uid="{2FD3405E-8AD6-43F7-BD9A-BB8E9DC5A1CD}"/>
-    <hyperlink ref="G7" r:id="rId16" xr:uid="{D999FA30-4543-4823-9DB2-411D8396A204}"/>
-    <hyperlink ref="H7" r:id="rId17" xr:uid="{A78A9D5B-4FB5-4A3D-AB33-E82E747F3C46}"/>
-    <hyperlink ref="I7" r:id="rId18" xr:uid="{E8E201E9-0023-4FC9-9811-56471AC53973}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{F71A9171-3678-4A35-8C87-A845549A14FE}"/>
-    <hyperlink ref="H8" r:id="rId20" xr:uid="{0D408B89-E27C-4F0F-BBCC-7C64E4EF25F2}"/>
-    <hyperlink ref="G9" r:id="rId21" xr:uid="{1FD7D14C-52E6-4FF8-9F0E-CE260864AEE0}"/>
-    <hyperlink ref="H9" r:id="rId22" xr:uid="{16838108-C94C-45F5-BCF4-D2598B2D2FAB}"/>
-    <hyperlink ref="I9" r:id="rId23" xr:uid="{5FB77E5D-65D8-4DFC-B5B2-CDCEF8997908}"/>
-    <hyperlink ref="G10" r:id="rId24" xr:uid="{C17C1C91-2624-4754-A7ED-8EDCFAD3521F}"/>
-    <hyperlink ref="I10" r:id="rId25" xr:uid="{314EDFF3-5AA4-49C5-A825-D0B3DBD0ED6C}"/>
-    <hyperlink ref="G11" r:id="rId26" xr:uid="{500A48B6-3E39-4180-8640-F6937CE879D5}"/>
-    <hyperlink ref="H11" r:id="rId27" xr:uid="{2577F39F-ABB2-4470-8DCE-8FF562FF2F12}"/>
-    <hyperlink ref="I11" r:id="rId28" xr:uid="{0A008BB4-3110-4400-834D-F60FC2C7D840}"/>
-    <hyperlink ref="C14" r:id="rId29" xr:uid="{AE72A9A0-02CE-4E36-BE33-CD25FEEA54DA}"/>
-    <hyperlink ref="C15" r:id="rId30" display="https://www.amazon.com/DORHEA-Development-Microcontroller-NodeMCU-32S-ESP-WROOM-32/dp/B08MQDS6WV/ref=sr_1_12?crid=8DVN6BSS2FJX&amp;dib=eyJ2IjoiMSJ9.edJiOR8X-WL1SRa17ob_HDXSoBvzONG1PDSYJaAlNPbFrXGZOL4f8j57cmRRZOtphwKO8Sd4zeLgvd2Jhk9mMO9UDJvWYDVJRnkiPIHyLO_a8_DfhJcf7uwuqnvT5fw3v9bbJzEGNl3PU0nhjNaepF7pV52wVPMnD24aTzwNVIFgmwpGDfTJCpktNzVhJh5xK4_fnWtFlLMA11tSkzkHQgCC79LU1GSrmA--z9NGT-M.hTCD6qTV1vUKsU0FT-HHKwX8Cu6XlB88lyWV3daqUfk&amp;dib_tag=se&amp;keywords=ESP-32%2B38Pin&amp;qid=1770882075&amp;sprefix=esp-32%2B38pin%2Caps%2C323&amp;sr=8-12&amp;th=1" xr:uid="{737105DF-7991-45DC-BE2E-13E770260032}"/>
-    <hyperlink ref="C16" r:id="rId31" xr:uid="{5FB80EB6-12A4-4286-91C0-D946B6799A01}"/>
-    <hyperlink ref="F27" r:id="rId32" xr:uid="{1E413497-C31C-4F9B-9A20-9F342F5DC7DF}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5" display="https://www.digikey.com/en/products/filter/tantalum-capacitors/59?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAE4AWADlgCYQBdAgBwBcoQBlNgJwEsAdgHMQAXwJhqAZgQhkkdNnxFSIaQHZYVBsxDtOPASPEE6AVgbR5qTLgLFIZOpTrkpTVh0jc%2BQ0RIgdAAMlORyCkr2qk4glBoABACtAGKe%2Bt4gAKqC-GwA8igAsjhoWACuvDimQcEa4daRdiqOZHAJAGrpBj45eYUlZZXVYqNAA"/>
+    <hyperlink ref="I3" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
+    <hyperlink ref="G5" r:id="rId10"/>
+    <hyperlink ref="H5" r:id="rId11"/>
+    <hyperlink ref="I5" r:id="rId12"/>
+    <hyperlink ref="G6" r:id="rId13"/>
+    <hyperlink ref="H6" r:id="rId14"/>
+    <hyperlink ref="I6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="H7" r:id="rId17"/>
+    <hyperlink ref="I7" r:id="rId18"/>
+    <hyperlink ref="G8" r:id="rId19"/>
+    <hyperlink ref="H8" r:id="rId20"/>
+    <hyperlink ref="G9" r:id="rId21"/>
+    <hyperlink ref="H9" r:id="rId22"/>
+    <hyperlink ref="I9" r:id="rId23"/>
+    <hyperlink ref="G10" r:id="rId24"/>
+    <hyperlink ref="I10" r:id="rId25"/>
+    <hyperlink ref="G11" r:id="rId26"/>
+    <hyperlink ref="H11" r:id="rId27"/>
+    <hyperlink ref="I11" r:id="rId28"/>
+    <hyperlink ref="C14" r:id="rId29"/>
+    <hyperlink ref="C15" r:id="rId30" display="https://www.amazon.com/DORHEA-Development-Microcontroller-NodeMCU-32S-ESP-WROOM-32/dp/B08MQDS6WV/ref=sr_1_12?crid=8DVN6BSS2FJX&amp;dib=eyJ2IjoiMSJ9.edJiOR8X-WL1SRa17ob_HDXSoBvzONG1PDSYJaAlNPbFrXGZOL4f8j57cmRRZOtphwKO8Sd4zeLgvd2Jhk9mMO9UDJvWYDVJRnkiPIHyLO_a8_DfhJcf7uwuqnvT5fw3v9bbJzEGNl3PU0nhjNaepF7pV52wVPMnD24aTzwNVIFgmwpGDfTJCpktNzVhJh5xK4_fnWtFlLMA11tSkzkHQgCC79LU1GSrmA--z9NGT-M.hTCD6qTV1vUKsU0FT-HHKwX8Cu6XlB88lyWV3daqUfk&amp;dib_tag=se&amp;keywords=ESP-32%2B38Pin&amp;qid=1770882075&amp;sprefix=esp-32%2B38pin%2Caps%2C323&amp;sr=8-12&amp;th=1"/>
+    <hyperlink ref="C16" r:id="rId31"/>
+    <hyperlink ref="F27" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId33"/>
